--- a/data/trans_bre/P20-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P20-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,53%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 3,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; -1,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,07; 57,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,31; 26,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 58,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,52; -10,16</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,03%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 6,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 6,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 4,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 2,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,86; 294,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,86; 154,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,37; 142,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; 63,29</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>232,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,62%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 10,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 6,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 194,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,29; 551,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,32; 192,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; 83,38</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 4,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 4,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 4,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,22; 120,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,23; 87,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,52; 94,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,9; 26,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,53%</t>
+          <t>-31,19%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -1,05</t>
+          <t>-6,17; -0,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -10,16</t>
+          <t>-48,27; -9,17</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>25,77%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,51</t>
+          <t>-0,96; 2,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 63,29</t>
+          <t>-18,56; 81,86</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,63</t>
+          <t>-1,56; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 83,38</t>
+          <t>-21,53; 77,58</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>9,33%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,42</t>
+          <t>-0,91; 1,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 26,85</t>
+          <t>-14,46; 39,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,32</t>
+          <t>-1,0; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,38</t>
+          <t>-2,96; 2,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,46</t>
+          <t>-1,57; 3,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -0,87</t>
+          <t>-6,15; -0,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 57,87</t>
+          <t>-14,04; 55,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 26,99</t>
+          <t>-24,06; 26,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 58,77</t>
+          <t>-18,9; 61,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,27; -9,17</t>
+          <t>-50,06; -8,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,15</t>
+          <t>2,98; 6,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,11</t>
+          <t>2,69; 6,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,74</t>
+          <t>1,87; 4,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,7</t>
+          <t>-0,57; 2,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,86; 294,23</t>
+          <t>89,84; 292,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,86; 154,84</t>
+          <t>47,47; 144,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,37; 142,2</t>
+          <t>39,5; 138,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 81,86</t>
+          <t>-12,71; 90,11</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 6,01</t>
+          <t>0,36; 6,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,05</t>
+          <t>3,27; 10,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,84</t>
+          <t>0,7; 6,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,45</t>
+          <t>-1,83; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 194,38</t>
+          <t>3,83; 200,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,29; 551,21</t>
+          <t>53,61; 575,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 192,35</t>
+          <t>6,9; 212,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 77,58</t>
+          <t>-25,6; 79,38</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,39</t>
+          <t>2,16; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,74</t>
+          <t>2,22; 4,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,09</t>
+          <t>1,66; 4,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,81</t>
+          <t>-0,87; 1,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,22; 120,32</t>
+          <t>44,27; 120,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 87,12</t>
+          <t>31,84; 86,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,52; 94,11</t>
+          <t>30,14; 94,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 39,74</t>
+          <t>-14,56; 41,03</t>
         </is>
       </c>
     </row>
